--- a/data/trans_camb/P7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>2,42</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
           <t>0,71</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,56</t>
+          <t>-2,88; 4,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,91</t>
+          <t>-8,34; 3,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,49</t>
+          <t>-7,05; 3,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,88</t>
+          <t>-0,55; 5,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,23</t>
+          <t>-4,35; 1,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 9,8</t>
+          <t>-2,2; 6,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 9,81</t>
+          <t>0,0; 11,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 10,42</t>
+          <t>-2,27; 10,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 5,64</t>
+          <t>-3,6; 8,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,61</t>
+          <t>-3,27; 10,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,09</t>
+          <t>-3,51; 3,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,88</t>
+          <t>-4,34; 2,73</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 5,82</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 3,57</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 3,52</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 4,98</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 1,92</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 3,48</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-0,79%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-0,76%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-0,38%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,01%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-0,53%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-0,1%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
           <t>0,72%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,25%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,16%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,73%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 4,87</t>
+          <t>-2,94; 4,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 5,2</t>
+          <t>-8,55; 3,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 4,77</t>
+          <t>-7,13; 3,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 4,09</t>
+          <t>-0,55; 6,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,25</t>
+          <t>-4,37; 1,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 11,0</t>
+          <t>-2,18; 6,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 11,05</t>
+          <t>0,0; 12,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 11,72</t>
+          <t>-2,27; 11,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,98</t>
+          <t>-3,62; 9,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,9</t>
+          <t>-3,27; 11,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 4,3</t>
+          <t>-3,57; 3,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,09</t>
+          <t>-4,38; 2,83</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 6,19</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 3,75</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 3,72</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 5,3</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 1,96</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 3,64</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-1,84</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 9,38</t>
+          <t>-2,8; 9,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 7,31</t>
+          <t>-4,46; 8,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 7,56</t>
+          <t>-5,27; 7,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 7,83</t>
+          <t>-5,92; 7,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,29</t>
+          <t>-11,18; 3,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 1,36</t>
+          <t>-10,89; 3,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,37; -0,64</t>
+          <t>-5,73; 2,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 0,95</t>
+          <t>-6,1; 0,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,82</t>
+          <t>-8,85; -0,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,81</t>
+          <t>-9,88; -0,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 2,14</t>
+          <t>-2,43; 7,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 3,55</t>
+          <t>-4,21; 7,59</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 4,69</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 2,56</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 1,85</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 2,31</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 3,99</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 2,95</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>-3,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>-4,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,71%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,86%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>-4,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-4,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-2,27%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-1,13%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-2,29%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-2,2%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-1,96%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 10,83</t>
+          <t>-2,93; 10,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 8,48</t>
+          <t>-4,69; 9,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 8,59</t>
+          <t>-5,58; 8,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 8,79</t>
+          <t>-6,25; 8,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 2,37</t>
+          <t>-11,76; 3,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 1,42</t>
+          <t>-11,43; 4,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -0,67</t>
+          <t>-5,83; 2,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 0,97</t>
+          <t>-6,19; 0,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 5,24</t>
+          <t>-9,04; -1,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 3,08</t>
+          <t>-10,1; -0,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 2,32</t>
+          <t>-2,55; 8,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 3,81</t>
+          <t>-4,33; 8,46</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 5,06</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 2,72</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; 1,97</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-6,52; 2,43</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 4,37</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 3,21</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>-1,47</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-2,41</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 4,38</t>
+          <t>-5,06; 3,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,96</t>
+          <t>-6,14; 2,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 4,08</t>
+          <t>-4,41; 4,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 3,7</t>
+          <t>-13,04; 1,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,91</t>
+          <t>-6,06; 10,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,84</t>
+          <t>-8,57; 3,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,31</t>
+          <t>-0,77; 3,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 2,68</t>
+          <t>-3,32; 1,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,85</t>
+          <t>-4,33; 1,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,94</t>
+          <t>-5,14; 1,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,98</t>
+          <t>-4,47; 2,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 2,14</t>
+          <t>-6,85; 0,53</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 2,97</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 1,63</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 1,78</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 0,51</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 4,83</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 0,73</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>-1,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>-2,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>-2,63%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-1,08%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-2,84%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>-2,55%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 4,83</t>
+          <t>-5,38; 4,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 3,29</t>
+          <t>-6,45; 3,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 4,49</t>
+          <t>-4,66; 4,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 4,12</t>
+          <t>-14,02; 1,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 4,07</t>
+          <t>-6,58; 13,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,91</t>
+          <t>-9,05; 3,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,36</t>
+          <t>-0,75; 3,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,81</t>
+          <t>-3,41; 1,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,05</t>
+          <t>-4,42; 1,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,11</t>
+          <t>-5,24; 1,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,1</t>
+          <t>-4,75; 3,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,27</t>
+          <t>-7,02; 0,55</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 3,16</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 1,74</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 1,88</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 0,53</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 5,41</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 0,81</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>-0,21</t>
         </is>
       </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-2,49</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-2,93</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,86</t>
+          <t>-5,04; 4,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 2,23</t>
+          <t>-6,78; 2,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -0,42</t>
+          <t>-10,49; -0,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 3,73</t>
+          <t>-5,74; 3,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,67</t>
+          <t>-8,35; 2,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,7</t>
+          <t>-8,5; 3,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,82</t>
+          <t>-3,45; 3,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,08</t>
+          <t>-4,05; 2,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 2,38</t>
+          <t>-3,64; 3,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,27</t>
+          <t>-2,57; 4,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 0,2</t>
+          <t>-6,86; 0,85</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,04</t>
+          <t>-6,38; 2,59</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 2,53</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 1,46</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 0,3</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 2,74</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 0,43</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 1,93</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>-0,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,47%</t>
+          <t>-5,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>-2,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>-0,11%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-3,34%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-1,92%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
           <t>-0,22%</t>
         </is>
       </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-1,62%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-2,71%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-1,05%</t>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-2,65%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-0,1%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-3,12%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-2,19%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 4,21</t>
+          <t>-5,37; 4,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 2,41</t>
+          <t>-7,21; 2,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,94; -0,44</t>
+          <t>-11,15; -0,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 4,05</t>
+          <t>-6,12; 3,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,95</t>
+          <t>-9,09; 3,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,9</t>
+          <t>-9,03; 3,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,03</t>
+          <t>-3,54; 3,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,32</t>
+          <t>-4,14; 2,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,56</t>
+          <t>-3,79; 3,58</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 1,37</t>
+          <t>-2,64; 4,41</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 0,21</t>
+          <t>-7,16; 0,86</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,2</t>
+          <t>-6,66; 2,82</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 2,74</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 1,59</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 0,33</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 2,94</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 0,47</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; 2,08</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>-7,41</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,99</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
           <t>-1,77</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
         <is>
           <t>-1,63</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="P20" s="2" t="inlineStr">
         <is>
           <t>-1,47</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>-2,72</t>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>-4,54</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 5,1</t>
+          <t>-9,14; 4,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 4,84</t>
+          <t>-8,03; 4,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 4,51</t>
+          <t>-7,69; 4,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 2,19</t>
+          <t>-7,95; 5,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 4,39</t>
+          <t>-13,97; 0,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 5,04</t>
+          <t>-10,79; 3,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 3,96</t>
+          <t>-7,95; 4,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 5,82</t>
+          <t>-8,85; 4,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,87</t>
+          <t>-8,9; 4,04</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 2,83</t>
+          <t>-6,53; 6,21</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 2,47</t>
+          <t>-8,96; 5,35</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 1,71</t>
+          <t>-8,71; 5,21</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; 2,4</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 2,91</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 2,6</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 3,23</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; 0,51</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 1,8</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>-1,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,08%</t>
+          <t>-1,8%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,77%</t>
+          <t>-2,05%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>-4,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-2,28%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>-1,74%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-1,81%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-1,95%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-1,04%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>-5,1%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-3,16%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 5,72</t>
+          <t>-9,64; 5,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 5,41</t>
+          <t>-8,52; 5,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 4,96</t>
+          <t>-8,22; 4,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 2,37</t>
+          <t>-8,39; 5,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 5,15</t>
+          <t>-15,29; -0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 5,96</t>
+          <t>-12,09; 4,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 4,65</t>
+          <t>-8,74; 5,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 6,87</t>
+          <t>-9,91; 5,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 3,21</t>
+          <t>-9,93; 4,74</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 3,23</t>
+          <t>-7,18; 7,27</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 2,81</t>
+          <t>-9,73; 6,49</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 1,93</t>
+          <t>-9,59; 6,24</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; 2,68</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 3,3</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; 2,97</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 3,66</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-10,53; 0,5</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 2,03</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-16,54</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-7,72</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>-10,62</t>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>-4,62</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 9,14</t>
+          <t>-4,79; 7,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 8,42</t>
+          <t>-3,8; 8,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 8,27</t>
+          <t>-4,6; 7,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 4,92</t>
+          <t>-8,55; 6,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 5,08</t>
+          <t>-9,48; 7,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 4,03</t>
+          <t>-7,76; 8,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 2,87</t>
+          <t>-10,07; 4,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-27,49; -5,16</t>
+          <t>-9,82; 4,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 4,57</t>
+          <t>-11,73; 2,11</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 4,55</t>
+          <t>-16,23; 2,3</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 3,15</t>
+          <t>-13,84; 8,6</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-17,87; -3,71</t>
+          <t>-7,54; 18,1</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 3,98</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 4,11</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 2,86</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-10,93; 1,41</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; 5,54</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 11,66</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-2,69%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-3,4%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>-4,06%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-3,51%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-5,95%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-9,63%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-3,24%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-1,22%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-0,64%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-2,48%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
           <t>-5,54%</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-20,64%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-0,73%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>-0,63%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>-2,44%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>-12,73%</t>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>-2,68%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 10,78</t>
+          <t>-5,23; 9,31</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 10,36</t>
+          <t>-4,19; 10,53</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 9,78</t>
+          <t>-5,1; 9,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 5,86</t>
+          <t>-9,45; 7,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 6,62</t>
+          <t>-10,48; 8,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 5,1</t>
+          <t>-8,45; 10,52</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 3,78</t>
+          <t>-12,35; 5,34</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-33,28; -6,7</t>
+          <t>-11,61; 5,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 5,66</t>
+          <t>-14,16; 2,77</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 5,55</t>
+          <t>-19,76; 2,89</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 3,84</t>
+          <t>-17,9; 12,63</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-21,16; -4,61</t>
+          <t>-10,48; 32,49</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-7,29; 4,94</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 5,04</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-8,4; 3,6</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-12,98; 1,75</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-11,67; 7,4</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 17,54</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,82</t>
+          <t>-1,64; 2,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,68</t>
+          <t>-2,64; 1,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,32</t>
+          <t>-3,05; 1,25</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,86</t>
+          <t>-3,76; 1,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,66</t>
+          <t>-4,88; 0,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,92</t>
+          <t>-4,74; 0,99</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,43</t>
+          <t>-2,68; 1,57</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -1,55</t>
+          <t>-3,18; 0,96</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,66</t>
+          <t>-4,0; 0,35</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,74</t>
+          <t>-4,99; -0,03</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,22</t>
+          <t>-4,24; 1,74</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -0,96</t>
+          <t>-2,94; 4,13</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 1,47</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 0,74</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 0,02</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; -0,03</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 0,33</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 1,51</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
+          <t>-2,68%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-0,07%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-1,65%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>-1,9%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-1,92%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
           <t>-0,76%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>-1,53%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>-3,05%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 3,1</t>
+          <t>-1,76; 2,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,83</t>
+          <t>-2,82; 1,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 1,43</t>
+          <t>-3,26; 1,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,95</t>
+          <t>-4,03; 1,61</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,82</t>
+          <t>-5,26; 0,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,01</t>
+          <t>-5,1; 1,1</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,48</t>
+          <t>-2,87; 1,73</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-8,49; -1,75</t>
+          <t>-3,4; 1,06</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,82</t>
+          <t>-4,3; 0,37</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,82</t>
+          <t>-5,38; -0,07</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,25</t>
+          <t>-4,69; 1,96</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -1,06</t>
+          <t>-3,26; 4,78</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 1,6</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 0,8</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 0,03</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; -0,03</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 0,37</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 1,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
